--- a/src/test/java/ApachePOI/Resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/Resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="14">
   <si>
     <t>Login with valid username and password.</t>
   </si>
@@ -98,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -594,6 +594,48 @@
         <v>13</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/Resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/Resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="14">
   <si>
     <t>Login with valid username and password.</t>
   </si>
@@ -98,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -636,6 +636,48 @@
         <v>13</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/Resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/Resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="17">
   <si>
     <t>Login with valid username and password.</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>12.10.22</t>
+  </si>
+  <si>
+    <t>Citizenship create</t>
+  </si>
+  <si>
+    <t>30.11.22</t>
+  </si>
+  <si>
+    <t>21.01.23</t>
   </si>
 </sst>
 </file>
@@ -98,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -678,6 +687,216 @@
         <v>13</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
